--- a/Household Income Analysis.xlsx
+++ b/Household Income Analysis.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chitishah/Dropbox/Johns Hopkins/Spring 2021/Decision Analytics/Mini Project 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BAD3EDB-BA9D-5243-9A75-010053B851F2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A6DBD4-FD4A-4340-8116-60E05703187A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15640" xr2:uid="{CCADCF92-506E-7848-9387-CEF99E802C0A}"/>
+    <workbookView xWindow="1160" yWindow="1000" windowWidth="27640" windowHeight="15640" activeTab="1" xr2:uid="{CCADCF92-506E-7848-9387-CEF99E802C0A}"/>
   </bookViews>
   <sheets>
     <sheet name="Baltimore Income Analysis" sheetId="2" r:id="rId1"/>
@@ -18,8 +18,8 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="8" r:id="rId3"/>
-    <pivotCache cacheId="7" r:id="rId4"/>
+    <pivotCache cacheId="47" r:id="rId3"/>
+    <pivotCache cacheId="48" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="192">
   <si>
     <t>Grand Total</t>
   </si>
@@ -53,132 +53,45 @@
     <t>Roland Park, Baltimore, MD</t>
   </si>
   <si>
-    <t>Taylor Village, Ellicott City, MD</t>
-  </si>
-  <si>
     <t>Homeland, Baltimore, MD</t>
   </si>
   <si>
     <t>Dunloggin, Ellicott City, MD</t>
   </si>
   <si>
-    <t>Perry Hall, MD</t>
-  </si>
-  <si>
-    <t>Towson, MD</t>
-  </si>
-  <si>
     <t>Mid-Charles, Baltimore, MD</t>
   </si>
   <si>
-    <t>Oakland Mills, Columbia, MD</t>
-  </si>
-  <si>
     <t>Tuscany - Canterbury, Baltimore, MD</t>
   </si>
   <si>
-    <t>Ellicott City, MD</t>
-  </si>
-  <si>
-    <t>Pikesville, MD</t>
-  </si>
-  <si>
-    <t>Kendall Ridge, Columbia, MD</t>
-  </si>
-  <si>
-    <t>Relay, Halethorpe, MD</t>
-  </si>
-  <si>
-    <t>West Elkridge, Elkridge, MD</t>
-  </si>
-  <si>
-    <t>Severn, MD</t>
-  </si>
-  <si>
-    <t>Nottingham, MD</t>
-  </si>
-  <si>
     <t>Columbia, MD</t>
   </si>
   <si>
-    <t>Long Reach, Columbia, MD</t>
-  </si>
-  <si>
     <t>Cross Country, Baltimore, MD</t>
   </si>
   <si>
     <t>Fells Point, Baltimore, MD</t>
   </si>
   <si>
-    <t>Linthicum Heights, MD</t>
-  </si>
-  <si>
-    <t>Pasadena, MD</t>
-  </si>
-  <si>
     <t>Catonsville, MD</t>
   </si>
   <si>
-    <t>Normandy, Ellicott City, MD</t>
-  </si>
-  <si>
-    <t>Hanover, MD</t>
-  </si>
-  <si>
-    <t>White Marsh, MD</t>
-  </si>
-  <si>
-    <t>Parkville, MD</t>
-  </si>
-  <si>
-    <t>Edgemere, MD</t>
-  </si>
-  <si>
-    <t>Halethorpe, MD</t>
-  </si>
-  <si>
     <t>Cheswolde, Baltimore, MD</t>
   </si>
   <si>
-    <t>Owings Mills, MD</t>
-  </si>
-  <si>
     <t>Woodring, Baltimore, MD</t>
   </si>
   <si>
-    <t>South Gate, Glen Burnie, MD</t>
-  </si>
-  <si>
     <t>Baltimore County, MD</t>
   </si>
   <si>
     <t>Cross Keys, Baltimore, MD</t>
   </si>
   <si>
-    <t>Rosedale, MD</t>
-  </si>
-  <si>
     <t>North Harford Road, Baltimore, MD</t>
   </si>
   <si>
-    <t>Riviera Beach, MD</t>
-  </si>
-  <si>
-    <t>Elkridge, MD</t>
-  </si>
-  <si>
-    <t>Sparrows Point, MD</t>
-  </si>
-  <si>
-    <t>Chestnut Hill Cove, Riviera Beach, MD</t>
-  </si>
-  <si>
-    <t>Savage, Jessup, MD</t>
-  </si>
-  <si>
-    <t>Middle River, MD</t>
-  </si>
-  <si>
     <t>Baltimore, MD</t>
   </si>
   <si>
@@ -191,39 +104,18 @@
     <t>Lake Walker, Baltimore, MD</t>
   </si>
   <si>
-    <t>Glen Burnie, MD</t>
-  </si>
-  <si>
     <t>Violetville, Baltimore, MD</t>
   </si>
   <si>
-    <t>Waterloo, Elkridge, MD</t>
-  </si>
-  <si>
-    <t>Dundalk, MD</t>
-  </si>
-  <si>
     <t>Arcadia, Baltimore, MD</t>
   </si>
   <si>
     <t>Radnor - Winston, Baltimore, MD</t>
   </si>
   <si>
-    <t>Gwynn Oak, Pikesville, MD</t>
-  </si>
-  <si>
     <t>Canton, Baltimore, MD</t>
   </si>
   <si>
-    <t>Brooklyn Park, MD</t>
-  </si>
-  <si>
-    <t>Randallstown, MD</t>
-  </si>
-  <si>
-    <t>Essex, MD</t>
-  </si>
-  <si>
     <t>Glenham-Belford, Baltimore, MD</t>
   </si>
   <si>
@@ -236,9 +128,6 @@
     <t>Fallstaff, Baltimore, MD</t>
   </si>
   <si>
-    <t>Lochearn, Pikesville, MD</t>
-  </si>
-  <si>
     <t>Westgate, Baltimore, MD</t>
   </si>
   <si>
@@ -263,18 +152,12 @@
     <t>Medfield, Baltimore, MD</t>
   </si>
   <si>
-    <t>Woodlawn, MD</t>
-  </si>
-  <si>
     <t>Glen, Baltimore, MD</t>
   </si>
   <si>
     <t>Lansdowne - Baltimore Highlands, Lansdowne, MD</t>
   </si>
   <si>
-    <t>Gwynn Oak, Woodlawn, MD</t>
-  </si>
-  <si>
     <t>Medford - Broening, Baltimore, MD</t>
   </si>
   <si>
@@ -284,24 +167,15 @@
     <t>Windsor Mill, Baltimore, MD</t>
   </si>
   <si>
-    <t>Windsor Mill, Milford Mill, MD</t>
-  </si>
-  <si>
     <t>Morrell Park, Baltimore, MD</t>
   </si>
   <si>
     <t>Woodberry, Baltimore, MD</t>
   </si>
   <si>
-    <t>Harford - Echodale - Perring Parkway, Baltimore, MD</t>
-  </si>
-  <si>
     <t>Fifteenth Street, Baltimore, MD</t>
   </si>
   <si>
-    <t>Gwynn Oak, Lochearn, MD</t>
-  </si>
-  <si>
     <t>Hillen, Baltimore, MD</t>
   </si>
   <si>
@@ -468,9 +342,6 @@
   </si>
   <si>
     <t>Edgecomb, Baltimore, MD</t>
-  </si>
-  <si>
-    <t>Coldstream - Homestead - Montebello, Baltimore, MD</t>
   </si>
   <si>
     <t>Pratt Monroe, Baltimore, MD</t>
@@ -826,21 +697,9 @@
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" pivotButton="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" pivotButton="1" applyBorder="1"/>
@@ -865,128 +724,6 @@
     <cellStyle name="Normal 2" xfId="1" xr:uid="{84CDC547-7080-B445-8B3E-A4F1158C68A0}"/>
   </cellStyles>
   <dxfs count="25">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color indexed="8"/>
-        <name val="Helvetica Neue"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color indexed="8"/>
-        <name val="Helvetica Neue"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color indexed="8"/>
-        <name val="Helvetica Neue"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color indexed="8"/>
-        <name val="Helvetica Neue"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color indexed="8"/>
-        <name val="Helvetica Neue"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color indexed="8"/>
-        <name val="Helvetica Neue"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <border>
         <left style="thin">
@@ -1184,6 +921,129 @@
           <color indexed="64"/>
         </horizontal>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <name val="Helvetica Neue"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <name val="Helvetica Neue"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <name val="Helvetica Neue"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <name val="Helvetica Neue"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <name val="Helvetica Neue"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <name val="Helvetica Neue"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1425,7 +1285,7 @@
   </mc:AlternateContent>
   <c:pivotSource>
     <c:name>[Household Income Analysis.xlsx]Baltimore Income Analysis!PivotTable3</c:name>
-    <c:fmtId val="1"/>
+    <c:fmtId val="2"/>
   </c:pivotSource>
   <c:chart>
     <c:title>
@@ -1434,13 +1294,27 @@
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  </a:sysClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1448,26 +1322,44 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" b="1">
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Average Household Income Baltimore, MD</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
                 </a:solidFill>
-              </a:rPr>
-              <a:t>Average</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" b="1" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t> Household Income Baltimore, MD</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:endParaRPr>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1483,13 +1375,27 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:sysClr val="windowText" lastClr="000000">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
-                </a:schemeClr>
+                </a:sysClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1508,69 +1414,8 @@
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
-          <a:ln w="28575" cap="rnd">
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
+          <a:ln>
             <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="1"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1645,18 +1490,16 @@
               <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Baltimore Income Analysis'!$A$4:$A$183</c:f>
+              <c:f>'Baltimore Income Analysis'!$A$4:$A$140</c:f>
               <c:strCache>
-                <c:ptCount val="179"/>
+                <c:ptCount val="136"/>
                 <c:pt idx="0">
                   <c:v>Milton - Montford, Baltimore, MD</c:v>
                 </c:pt>
@@ -1766,432 +1609,303 @@
                   <c:v>Pratt Monroe, Baltimore, MD</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>Coldstream - Homestead - Montebello, Baltimore, MD</c:v>
+                  <c:v>Edgecomb, Baltimore, MD</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>Edgecomb, Baltimore, MD</c:v>
+                  <c:v>Rosemont, Baltimore, MD</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>Rosemont, Baltimore, MD</c:v>
+                  <c:v>Bridgeview-Greenlawn, Baltimore, MD</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>Bridgeview-Greenlawn, Baltimore, MD</c:v>
+                  <c:v>Park Circle, Baltimore, MD</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>Hollins Market, Baltimore, MD</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>Park Circle, Baltimore, MD</c:v>
+                  <c:v>Harwood, Baltimore, MD</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>Harwood, Baltimore, MD</c:v>
+                  <c:v>Central Park Heights, Baltimore, MD</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>Central Park Heights, Baltimore, MD</c:v>
+                  <c:v>Pigtown, Baltimore, MD</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>Pigtown, Baltimore, MD</c:v>
+                  <c:v>Coppin Heights, Baltimore, MD</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>Coppin Heights, Baltimore, MD</c:v>
+                  <c:v>Mosher, Baltimore, MD</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>Mosher, Baltimore, MD</c:v>
+                  <c:v>Arlington, Baltimore, MD</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>Arlington, Baltimore, MD</c:v>
+                  <c:v>Cedonia, Baltimore, MD</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>Cedonia, Baltimore, MD</c:v>
+                  <c:v>Darley Park, Baltimore, MD</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>Darley Park, Baltimore, MD</c:v>
+                  <c:v>Edmondson, Baltimore, MD</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>Edmondson, Baltimore, MD</c:v>
+                  <c:v>Saint Joseph's, Baltimore, MD</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>Saint Joseph's, Baltimore, MD</c:v>
+                  <c:v>Old Goucher, Baltimore, MD</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>Old Goucher, Baltimore, MD</c:v>
+                  <c:v>Woodbrook, Baltimore, MD</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>Woodbrook, Baltimore, MD</c:v>
+                  <c:v>Better Waverly, Baltimore, MD</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>Better Waverly, Baltimore, MD</c:v>
+                  <c:v>Dorchester, Baltimore, MD</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>Dorchester, Baltimore, MD</c:v>
+                  <c:v>Reisterstown Station, Baltimore, MD</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>Reisterstown Station, Baltimore, MD</c:v>
+                  <c:v>Winston - Govans, Baltimore, MD</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>Winston - Govans, Baltimore, MD</c:v>
+                  <c:v>Burleith-Leighton, Baltimore, MD</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>Burleith-Leighton, Baltimore, MD</c:v>
+                  <c:v>Curtis Bay, Baltimore, MD</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>Curtis Bay, Baltimore, MD</c:v>
+                  <c:v>Windsor Hills, Baltimore, MD</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>Windsor Hills, Baltimore, MD</c:v>
+                  <c:v>Allendale, Baltimore, MD</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>Allendale, Baltimore, MD</c:v>
+                  <c:v>Remington, Baltimore, MD</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>Remington, Baltimore, MD</c:v>
+                  <c:v>Downtown, Baltimore, MD</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>Downtown, Baltimore, MD</c:v>
+                  <c:v>Garwyn Oaks, Baltimore, MD</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>Garwyn Oaks, Baltimore, MD</c:v>
+                  <c:v>Yale Heights, Baltimore, MD</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>Yale Heights, Baltimore, MD</c:v>
+                  <c:v>Parkside, Baltimore, MD</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>Parkside, Baltimore, MD</c:v>
+                  <c:v>Patterson Park, Baltimore, MD</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>Patterson Park, Baltimore, MD</c:v>
+                  <c:v>Lakeland, Baltimore, MD</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>Lakeland, Baltimore, MD</c:v>
+                  <c:v>Hanlon Longwood, Baltimore, MD</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>Hanlon Longwood, Baltimore, MD</c:v>
+                  <c:v>West Forest Park, Baltimore, MD</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>West Forest Park, Baltimore, MD</c:v>
+                  <c:v>Irvington, Baltimore, MD</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>Irvington, Baltimore, MD</c:v>
+                  <c:v>Belair - Edison, Baltimore, MD</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>Belair - Edison, Baltimore, MD</c:v>
+                  <c:v>Frankford, Baltimore, MD</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>Frankford, Baltimore, MD</c:v>
+                  <c:v>Walbrook, Baltimore, MD</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>Walbrook, Baltimore, MD</c:v>
+                  <c:v>Baltimore Highlands, Baltimore, MD</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>Baltimore Highlands, Baltimore, MD</c:v>
+                  <c:v>Rognel Heights, Baltimore, MD</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>Rognel Heights, Baltimore, MD</c:v>
+                  <c:v>Little Italy, Baltimore, MD</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>Little Italy, Baltimore, MD</c:v>
+                  <c:v>Mid-Govans, Baltimore, MD</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>Mid-Govans, Baltimore, MD</c:v>
+                  <c:v>New Northwood, Baltimore, MD</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>New Northwood, Baltimore, MD</c:v>
+                  <c:v>Ednor Gardens - Lakeside, Baltimore, MD</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>Ednor Gardens - Lakeside, Baltimore, MD</c:v>
+                  <c:v>Beechfield, Baltimore, MD</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>Beechfield, Baltimore, MD</c:v>
+                  <c:v>East Arlington, Baltimore, MD</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>East Arlington, Baltimore, MD</c:v>
+                  <c:v>Brooklyn, Baltimore, MD</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>Brooklyn, Baltimore, MD</c:v>
+                  <c:v>Perring Loch, Baltimore, MD</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>Perring Loch, Baltimore, MD</c:v>
+                  <c:v>Idlewood, Baltimore, MD</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>Idlewood, Baltimore, MD</c:v>
+                  <c:v>Armistead Gardens, Baltimore, MD</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>Armistead Gardens, Baltimore, MD</c:v>
+                  <c:v>Loch Raven, Baltimore, MD</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>Loch Raven, Baltimore, MD</c:v>
+                  <c:v>Gwynn Oak, Baltimore, MD</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>Gwynn Oak, Baltimore, MD</c:v>
+                  <c:v>South Baltimore, Baltimore, MD</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>South Baltimore, Baltimore, MD</c:v>
+                  <c:v>Upper Fells Point, Baltimore, MD</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>Upper Fells Point, Baltimore, MD</c:v>
+                  <c:v>Ramblewood, Baltimore, MD</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>Ramblewood, Baltimore, MD</c:v>
+                  <c:v>Hillen, Baltimore, MD</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>Hillen, Baltimore, MD</c:v>
+                  <c:v>Fifteenth Street, Baltimore, MD</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>Gwynn Oak, Lochearn, MD</c:v>
+                  <c:v>Woodberry, Baltimore, MD</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>Fifteenth Street, Baltimore, MD</c:v>
+                  <c:v>Morrell Park, Baltimore, MD</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>Harford - Echodale - Perring Parkway, Baltimore, MD</c:v>
+                  <c:v>Windsor Mill, Baltimore, MD</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>Woodberry, Baltimore, MD</c:v>
+                  <c:v>Cedmont, Baltimore, MD</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>Morrell Park, Baltimore, MD</c:v>
+                  <c:v>Medford - Broening, Baltimore, MD</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>Windsor Mill, Milford Mill, MD</c:v>
+                  <c:v>Lansdowne - Baltimore Highlands, Lansdowne, MD</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>Windsor Mill, Baltimore, MD</c:v>
+                  <c:v>Glen, Baltimore, MD</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>Cedmont, Baltimore, MD</c:v>
+                  <c:v>Medfield, Baltimore, MD</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>Medford - Broening, Baltimore, MD</c:v>
+                  <c:v>Hampden, Baltimore, MD</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>Gwynn Oak, Woodlawn, MD</c:v>
+                  <c:v>Lansdowne - Baltimore Highlands, Halethorpe, MD</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>Lansdowne - Baltimore Highlands, Lansdowne, MD</c:v>
+                  <c:v>Joseph Lee, Baltimore, MD</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>Glen, Baltimore, MD</c:v>
+                  <c:v>Lauraville, Baltimore, MD</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>Woodlawn, MD</c:v>
+                  <c:v>Riverside Park, Baltimore, MD</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>Medfield, Baltimore, MD</c:v>
+                  <c:v>Bolton Hill, Baltimore, MD</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>Hampden, Baltimore, MD</c:v>
+                  <c:v>Westgate, Baltimore, MD</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>Lansdowne - Baltimore Highlands, Halethorpe, MD</c:v>
+                  <c:v>Fallstaff, Baltimore, MD</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>Joseph Lee, Baltimore, MD</c:v>
+                  <c:v>Cold Springs, Baltimore, MD</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>Lauraville, Baltimore, MD</c:v>
+                  <c:v>Waltherson, Baltimore, MD</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>Riverside Park, Baltimore, MD</c:v>
+                  <c:v>Glenham-Belford, Baltimore, MD</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>Bolton Hill, Baltimore, MD</c:v>
+                  <c:v>Canton, Baltimore, MD</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>Westgate, Baltimore, MD</c:v>
+                  <c:v>Radnor - Winston, Baltimore, MD</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>Lochearn, Pikesville, MD</c:v>
+                  <c:v>Arcadia, Baltimore, MD</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>Fallstaff, Baltimore, MD</c:v>
+                  <c:v>Violetville, Baltimore, MD</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>Cold Springs, Baltimore, MD</c:v>
+                  <c:v>Lake Walker, Baltimore, MD</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>Waltherson, Baltimore, MD</c:v>
+                  <c:v>Riverside, Baltimore, MD</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>Glenham-Belford, Baltimore, MD</c:v>
+                  <c:v>Locust Point, Baltimore, MD</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>Essex, MD</c:v>
+                  <c:v>Baltimore, MD</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>Randallstown, MD</c:v>
+                  <c:v>North Harford Road, Baltimore, MD</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>Brooklyn Park, MD</c:v>
+                  <c:v>Cross Keys, Baltimore, MD</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>Canton, Baltimore, MD</c:v>
+                  <c:v>Baltimore County, MD</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>Gwynn Oak, Pikesville, MD</c:v>
+                  <c:v>Woodring, Baltimore, MD</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>Radnor - Winston, Baltimore, MD</c:v>
+                  <c:v>Cheswolde, Baltimore, MD</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>Arcadia, Baltimore, MD</c:v>
+                  <c:v>Catonsville, MD</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>Dundalk, MD</c:v>
+                  <c:v>Fells Point, Baltimore, MD</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>Waterloo, Elkridge, MD</c:v>
+                  <c:v>Cross Country, Baltimore, MD</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>Violetville, Baltimore, MD</c:v>
+                  <c:v>Columbia, MD</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>Glen Burnie, MD</c:v>
+                  <c:v>Tuscany - Canterbury, Baltimore, MD</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>Lake Walker, Baltimore, MD</c:v>
+                  <c:v>Mid-Charles, Baltimore, MD</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>Riverside, Baltimore, MD</c:v>
+                  <c:v>Dunloggin, Ellicott City, MD</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>Locust Point, Baltimore, MD</c:v>
+                  <c:v>Homeland, Baltimore, MD</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>Baltimore, MD</c:v>
+                  <c:v>Roland Park, Baltimore, MD</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>Middle River, MD</c:v>
+                  <c:v>Mount Washington, Baltimore, MD</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>Savage, Jessup, MD</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>Chestnut Hill Cove, Riviera Beach, MD</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>Sparrows Point, MD</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>Elkridge, MD</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>Riviera Beach, MD</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>North Harford Road, Baltimore, MD</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>Rosedale, MD</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>Cross Keys, Baltimore, MD</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>Baltimore County, MD</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>South Gate, Glen Burnie, MD</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>Woodring, Baltimore, MD</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>Owings Mills, MD</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>Cheswolde, Baltimore, MD</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>Halethorpe, MD</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>Edgemere, MD</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>Parkville, MD</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>White Marsh, MD</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>Hanover, MD</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>Normandy, Ellicott City, MD</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>Catonsville, MD</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>Pasadena, MD</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>Linthicum Heights, MD</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>Fells Point, Baltimore, MD</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>Cross Country, Baltimore, MD</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>Long Reach, Columbia, MD</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>Columbia, MD</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>Nottingham, MD</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>Severn, MD</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>West Elkridge, Elkridge, MD</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>Relay, Halethorpe, MD</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>Kendall Ridge, Columbia, MD</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>Pikesville, MD</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>Ellicott City, MD</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>Tuscany - Canterbury, Baltimore, MD</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>Oakland Mills, Columbia, MD</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>Mid-Charles, Baltimore, MD</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>Towson, MD</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>Perry Hall, MD</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>Dunloggin, Ellicott City, MD</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>Homeland, Baltimore, MD</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>Taylor Village, Ellicott City, MD</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>Roland Park, Baltimore, MD</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>Mount Washington, Baltimore, MD</c:v>
-                </c:pt>
-                <c:pt idx="178">
                   <c:v>Evergreen, Baltimore, MD</c:v>
                 </c:pt>
               </c:strCache>
@@ -2199,10 +1913,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Baltimore Income Analysis'!$B$4:$B$183</c:f>
+              <c:f>'Baltimore Income Analysis'!$B$4:$B$140</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="179"/>
+                <c:ptCount val="136"/>
                 <c:pt idx="0">
                   <c:v>17213</c:v>
                 </c:pt>
@@ -2312,432 +2026,303 @@
                   <c:v>21278</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>21477.5</c:v>
+                  <c:v>21588</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>21588</c:v>
+                  <c:v>21705</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>21705</c:v>
+                  <c:v>22158</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>22158</c:v>
+                  <c:v>22384</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>22384</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>22384</c:v>
+                  <c:v>22463</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>22463</c:v>
+                  <c:v>22503.5</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>22503.5</c:v>
+                  <c:v>22554</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>22554</c:v>
+                  <c:v>22687</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>22687</c:v>
+                  <c:v>22748</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>22748</c:v>
+                  <c:v>22834</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>22834</c:v>
+                  <c:v>22835</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>22835</c:v>
+                  <c:v>23070</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>23070</c:v>
+                  <c:v>23267.5</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>23267.5</c:v>
+                  <c:v>23275</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>23275</c:v>
+                  <c:v>23281</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>23281</c:v>
+                  <c:v>23598</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>23598</c:v>
+                  <c:v>23653.5</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>23653.5</c:v>
+                  <c:v>23654</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>23654</c:v>
+                  <c:v>23921</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>23921</c:v>
+                  <c:v>24373</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>24373</c:v>
+                  <c:v>24561</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>24561</c:v>
+                  <c:v>24644</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>24644</c:v>
+                  <c:v>24977</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>24977</c:v>
+                  <c:v>25104</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>25104</c:v>
+                  <c:v>25123</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>25123</c:v>
+                  <c:v>25325</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>25325</c:v>
+                  <c:v>25381</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>25381</c:v>
+                  <c:v>25562</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>25562</c:v>
+                  <c:v>25652</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>25652</c:v>
+                  <c:v>25714.666666666668</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>25714.666666666668</c:v>
+                  <c:v>25836</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>25836</c:v>
+                  <c:v>25970</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>25970</c:v>
+                  <c:v>26262</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>26262</c:v>
+                  <c:v>26410.5</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>26410.5</c:v>
+                  <c:v>26633.5</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>26633.5</c:v>
+                  <c:v>26829.25</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>26829.25</c:v>
+                  <c:v>26952</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>26952</c:v>
+                  <c:v>27146</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>27146</c:v>
+                  <c:v>27472</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>27472</c:v>
+                  <c:v>27607</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>27607</c:v>
+                  <c:v>28019</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>28019</c:v>
+                  <c:v>28134</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>28134</c:v>
+                  <c:v>28244.333333333332</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>28244.333333333332</c:v>
+                  <c:v>28901</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>28901</c:v>
+                  <c:v>28912</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>28912</c:v>
+                  <c:v>29251.25</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>29251.25</c:v>
+                  <c:v>29687</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>29687</c:v>
+                  <c:v>29990</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>29990</c:v>
+                  <c:v>30027</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>30027</c:v>
+                  <c:v>30166</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>30166</c:v>
+                  <c:v>30250.125</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>30250.125</c:v>
+                  <c:v>30586.5</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>30586.5</c:v>
+                  <c:v>31101</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>31101</c:v>
+                  <c:v>31168</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>31168</c:v>
+                  <c:v>32121</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>32121</c:v>
+                  <c:v>32278</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>32193.5</c:v>
+                  <c:v>32483</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>32278</c:v>
+                  <c:v>32738</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>32292.666666666668</c:v>
+                  <c:v>33932.25</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>32483</c:v>
+                  <c:v>34720</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>32738</c:v>
+                  <c:v>34779</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>33001.666666666664</c:v>
+                  <c:v>35168</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>33932.25</c:v>
+                  <c:v>35184</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>34720</c:v>
+                  <c:v>35857</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>34779</c:v>
+                  <c:v>36312</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>34865</c:v>
+                  <c:v>36664.5</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>35168</c:v>
+                  <c:v>36983</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>35184</c:v>
+                  <c:v>37176.5</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>35466.666666666664</c:v>
+                  <c:v>37546</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>35857</c:v>
+                  <c:v>37731</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>36312</c:v>
+                  <c:v>37885</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>36664.5</c:v>
+                  <c:v>38111</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>36983</c:v>
+                  <c:v>38207</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>37176.5</c:v>
+                  <c:v>38249</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>37546</c:v>
+                  <c:v>38283</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>37731</c:v>
+                  <c:v>39216.25</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>37885</c:v>
+                  <c:v>39299</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>37979.5</c:v>
+                  <c:v>39473</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>38111</c:v>
+                  <c:v>40634</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>38207</c:v>
+                  <c:v>41890</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>38249</c:v>
+                  <c:v>41928.5</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>38283</c:v>
+                  <c:v>41988</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>38457.727272727272</c:v>
+                  <c:v>42366.71875</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>38803.25</c:v>
+                  <c:v>45830.5</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>39171.5</c:v>
+                  <c:v>46668</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>39216.25</c:v>
+                  <c:v>47577</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>39243</c:v>
+                  <c:v>47909</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>39299</c:v>
+                  <c:v>48007</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>39473</c:v>
+                  <c:v>52395.846153846156</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>39896.470588235294</c:v>
+                  <c:v>52863</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>40088</c:v>
+                  <c:v>53447</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>40634</c:v>
+                  <c:v>54032.666666666664</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>41634.454545454544</c:v>
+                  <c:v>60859</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>41890</c:v>
+                  <c:v>62714</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>41928.5</c:v>
+                  <c:v>66111</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>41988</c:v>
+                  <c:v>66907</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>42366.71875</c:v>
+                  <c:v>68340</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>42742.818181818184</c:v>
+                  <c:v>69634</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>43251</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>43897</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>44041.5</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>44502.666666666664</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>45636</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>45830.5</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>46194.875</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>46668</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>47577</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>47675</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>47909</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>48005.25</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>48007</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>48138.333333333336</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>48240</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>48857.076923076922</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>49379</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>49511</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>49921</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>52395.846153846156</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>52719.5</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>52722.666666666664</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>52863</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>53447</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>53493.5</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>54032.666666666664</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>54118.625</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>57063</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>58596</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>59646</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>60323</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>60442.714285714283</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>60461.428571428572</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>60859</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>61832</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>62714</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>64156</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>64395</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>66111</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>66907</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>67058</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>68340</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>69634</c:v>
-                </c:pt>
-                <c:pt idx="178">
                   <c:v>71859</c:v>
                 </c:pt>
               </c:numCache>
@@ -2745,7 +2330,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4872-E349-956B-BC88E71518EB}"/>
+              <c16:uniqueId val="{00000000-DD04-2446-A419-4A92047F39A7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2757,12 +2342,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="1884604688"/>
-        <c:axId val="209197839"/>
+        <c:gapWidth val="104"/>
+        <c:overlap val="-27"/>
+        <c:axId val="132026815"/>
+        <c:axId val="132028463"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1884604688"/>
+        <c:axId val="132026815"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2789,13 +2375,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Areas</a:t>
+                  <a:t>Areas in Baltimore</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> in Baltimore</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2865,7 +2446,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209197839"/>
+        <c:crossAx val="132028463"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2873,7 +2454,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="209197839"/>
+        <c:axId val="132028463"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2914,13 +2495,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Average Household</a:t>
+                  <a:t>Average Household Income ($)</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Income ($)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2984,7 +2560,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1884604688"/>
+        <c:crossAx val="132026815"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4971,28 +4547,26 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>393700</xdr:rowOff>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A18F327E-E052-0142-902D-713BE38EDCBE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA4522C4-F728-6F42-966E-0B25E944DC46}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -5015,8 +4589,8 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
@@ -11163,8 +10737,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{73B581C3-35FA-B140-BA3A-250D7363ED18}" name="PivotTable3" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
-  <location ref="A3:B183" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{73B581C3-35FA-B140-BA3A-250D7363ED18}" name="PivotTable3" cacheId="47" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A3:B140" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
@@ -11185,7 +10759,7 @@
         <item x="73"/>
         <item x="141"/>
         <item x="153"/>
-        <item x="50"/>
+        <item h="1" x="50"/>
         <item x="76"/>
         <item x="121"/>
         <item x="152"/>
@@ -11195,11 +10769,11 @@
         <item x="133"/>
         <item x="127"/>
         <item x="140"/>
-        <item x="52"/>
+        <item h="1" x="52"/>
         <item x="41"/>
         <item x="172"/>
         <item x="69"/>
-        <item x="142"/>
+        <item h="1" x="142"/>
         <item x="15"/>
         <item x="136"/>
         <item x="27"/>
@@ -11209,17 +10783,17 @@
         <item x="126"/>
         <item x="88"/>
         <item x="173"/>
-        <item x="36"/>
+        <item h="1" x="36"/>
         <item x="11"/>
         <item x="102"/>
         <item x="164"/>
         <item x="146"/>
-        <item x="40"/>
+        <item h="1" x="40"/>
         <item x="125"/>
         <item x="93"/>
-        <item x="30"/>
-        <item x="5"/>
-        <item x="42"/>
+        <item h="1" x="30"/>
+        <item h="1" x="5"/>
+        <item h="1" x="42"/>
         <item x="3"/>
         <item x="71"/>
         <item x="28"/>
@@ -11228,19 +10802,19 @@
         <item x="175"/>
         <item x="115"/>
         <item x="167"/>
-        <item x="38"/>
+        <item h="1" x="38"/>
         <item x="66"/>
         <item x="54"/>
         <item x="149"/>
         <item x="81"/>
-        <item x="85"/>
-        <item x="63"/>
-        <item x="80"/>
-        <item x="37"/>
+        <item h="1" x="85"/>
+        <item h="1" x="63"/>
+        <item h="1" x="80"/>
+        <item h="1" x="37"/>
         <item x="68"/>
         <item x="111"/>
-        <item x="32"/>
-        <item x="64"/>
+        <item h="1" x="32"/>
+        <item h="1" x="64"/>
         <item x="156"/>
         <item x="137"/>
         <item x="91"/>
@@ -11250,7 +10824,7 @@
         <item x="109"/>
         <item x="177"/>
         <item x="77"/>
-        <item x="18"/>
+        <item h="1" x="18"/>
         <item x="56"/>
         <item x="112"/>
         <item x="151"/>
@@ -11258,19 +10832,19 @@
         <item x="65"/>
         <item x="70"/>
         <item x="145"/>
-        <item x="19"/>
+        <item h="1" x="19"/>
         <item x="106"/>
         <item x="97"/>
-        <item x="48"/>
+        <item h="1" x="48"/>
         <item x="55"/>
-        <item x="23"/>
+        <item h="1" x="23"/>
         <item x="160"/>
         <item x="171"/>
         <item x="78"/>
         <item x="82"/>
         <item x="13"/>
         <item x="105"/>
-        <item x="29"/>
+        <item h="1" x="29"/>
         <item x="162"/>
         <item x="159"/>
         <item x="178"/>
@@ -11280,73 +10854,73 @@
         <item x="163"/>
         <item x="4"/>
         <item x="104"/>
-        <item x="34"/>
+        <item h="1" x="34"/>
         <item x="35"/>
-        <item x="14"/>
+        <item h="1" x="14"/>
         <item x="158"/>
         <item x="165"/>
-        <item x="16"/>
+        <item h="1" x="16"/>
         <item x="129"/>
         <item x="169"/>
-        <item x="9"/>
+        <item h="1" x="9"/>
         <item x="139"/>
         <item x="113"/>
-        <item x="21"/>
-        <item x="26"/>
+        <item h="1" x="21"/>
+        <item h="1" x="26"/>
         <item x="95"/>
         <item h="1" x="179"/>
         <item x="154"/>
         <item x="161"/>
         <item x="101"/>
-        <item x="12"/>
+        <item h="1" x="12"/>
         <item x="116"/>
-        <item x="0"/>
+        <item h="1" x="0"/>
         <item x="174"/>
         <item x="132"/>
         <item x="148"/>
         <item x="62"/>
         <item x="94"/>
-        <item x="25"/>
+        <item h="1" x="25"/>
         <item x="124"/>
-        <item x="20"/>
+        <item h="1" x="20"/>
         <item x="117"/>
         <item x="147"/>
         <item x="74"/>
         <item x="33"/>
-        <item x="49"/>
+        <item h="1" x="49"/>
         <item x="107"/>
         <item x="6"/>
-        <item x="31"/>
+        <item h="1" x="31"/>
         <item x="144"/>
         <item x="130"/>
         <item x="157"/>
-        <item x="53"/>
-        <item x="24"/>
+        <item h="1" x="53"/>
+        <item h="1" x="24"/>
         <item x="176"/>
         <item x="84"/>
-        <item x="44"/>
-        <item x="46"/>
-        <item x="7"/>
-        <item x="1"/>
+        <item h="1" x="44"/>
+        <item h="1" x="46"/>
+        <item h="1" x="7"/>
+        <item h="1" x="1"/>
         <item x="17"/>
         <item x="87"/>
         <item x="166"/>
         <item x="57"/>
         <item x="108"/>
         <item x="58"/>
-        <item x="60"/>
-        <item x="22"/>
+        <item h="1" x="60"/>
+        <item h="1" x="22"/>
         <item x="110"/>
         <item x="72"/>
         <item x="170"/>
-        <item x="39"/>
+        <item h="1" x="39"/>
         <item x="119"/>
         <item x="67"/>
-        <item x="79"/>
+        <item h="1" x="79"/>
         <item x="122"/>
         <item x="89"/>
         <item x="128"/>
-        <item x="75"/>
+        <item h="1" x="75"/>
         <item x="43"/>
         <item x="114"/>
         <item t="default"/>
@@ -11776,7 +11350,7 @@
   <rowFields count="1">
     <field x="1"/>
   </rowFields>
-  <rowItems count="180">
+  <rowItems count="137">
     <i>
       <x v="104"/>
     </i>
@@ -11886,9 +11460,6 @@
       <x v="134"/>
     </i>
     <i>
-      <x v="30"/>
-    </i>
-    <i>
       <x v="44"/>
     </i>
     <i>
@@ -11898,12 +11469,12 @@
       <x v="14"/>
     </i>
     <i>
+      <x v="120"/>
+    </i>
+    <i>
       <x v="75"/>
     </i>
     <i>
-      <x v="120"/>
-    </i>
-    <i>
       <x v="73"/>
     </i>
     <i>
@@ -12057,24 +11628,15 @@
       <x v="74"/>
     </i>
     <i>
-      <x v="64"/>
-    </i>
-    <i>
       <x v="54"/>
     </i>
     <i>
-      <x v="71"/>
-    </i>
-    <i>
       <x v="175"/>
     </i>
     <i>
       <x v="106"/>
     </i>
     <i>
-      <x v="173"/>
-    </i>
-    <i>
       <x v="172"/>
     </i>
     <i>
@@ -12084,18 +11646,12 @@
       <x v="98"/>
     </i>
     <i>
-      <x v="66"/>
-    </i>
-    <i>
       <x v="86"/>
     </i>
     <i>
       <x v="60"/>
     </i>
     <i>
-      <x v="177"/>
-    </i>
-    <i>
       <x v="97"/>
     </i>
     <i>
@@ -12120,9 +11676,6 @@
       <x v="168"/>
     </i>
     <i>
-      <x v="92"/>
-    </i>
-    <i>
       <x v="52"/>
     </i>
     <i>
@@ -12135,39 +11688,18 @@
       <x v="61"/>
     </i>
     <i>
-      <x v="50"/>
-    </i>
-    <i>
-      <x v="137"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
       <x v="20"/>
     </i>
     <i>
-      <x v="65"/>
-    </i>
-    <i>
       <x v="135"/>
     </i>
     <i>
       <x v="1"/>
     </i>
     <i>
-      <x v="40"/>
-    </i>
-    <i>
-      <x v="165"/>
-    </i>
-    <i>
       <x v="162"/>
     </i>
     <i>
-      <x v="59"/>
-    </i>
-    <i>
       <x v="82"/>
     </i>
     <i>
@@ -12180,130 +11712,43 @@
       <x v="6"/>
     </i>
     <i>
-      <x v="101"/>
-    </i>
-    <i>
-      <x v="151"/>
-    </i>
-    <i>
-      <x v="26"/>
-    </i>
-    <i>
-      <x v="156"/>
-    </i>
-    <i>
-      <x v="48"/>
-    </i>
-    <i>
-      <x v="144"/>
-    </i>
-    <i>
       <x v="112"/>
     </i>
     <i>
-      <x v="147"/>
-    </i>
-    <i>
       <x v="34"/>
     </i>
     <i>
       <x v="4"/>
     </i>
     <i>
-      <x v="155"/>
-    </i>
-    <i>
       <x v="178"/>
     </i>
     <i>
-      <x v="119"/>
-    </i>
-    <i>
       <x v="27"/>
     </i>
     <i>
-      <x v="67"/>
-    </i>
-    <i>
-      <x v="45"/>
-    </i>
-    <i>
-      <x v="122"/>
-    </i>
-    <i>
-      <x v="170"/>
-    </i>
-    <i>
-      <x v="70"/>
-    </i>
-    <i>
-      <x v="111"/>
-    </i>
-    <i>
       <x v="21"/>
     </i>
     <i>
-      <x v="123"/>
-    </i>
-    <i>
-      <x v="89"/>
-    </i>
-    <i>
       <x v="53"/>
     </i>
     <i>
       <x v="33"/>
     </i>
     <i>
-      <x v="94"/>
-    </i>
-    <i>
       <x v="31"/>
     </i>
     <i>
-      <x v="113"/>
-    </i>
-    <i>
-      <x v="152"/>
-    </i>
-    <i>
-      <x v="166"/>
-    </i>
-    <i>
-      <x v="139"/>
-    </i>
-    <i>
-      <x v="81"/>
-    </i>
-    <i>
-      <x v="131"/>
-    </i>
-    <i>
-      <x v="49"/>
-    </i>
-    <i>
       <x v="159"/>
     </i>
     <i>
-      <x v="116"/>
-    </i>
-    <i>
       <x v="99"/>
     </i>
     <i>
-      <x v="158"/>
-    </i>
-    <i>
-      <x v="129"/>
-    </i>
-    <i>
       <x v="41"/>
     </i>
     <i>
       <x v="76"/>
-    </i>
-    <i>
-      <x v="157"/>
     </i>
     <i>
       <x v="146"/>
@@ -12325,16 +11770,16 @@
     <dataField name="Average of Household_Income_rP_gP_pall" fld="2" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="9">
-    <format dxfId="6">
+    <format dxfId="0">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="7">
+    <format dxfId="1">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="8">
+    <format dxfId="2">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="9">
+    <format dxfId="3">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="50">
@@ -12392,7 +11837,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="10">
+    <format dxfId="4">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="50">
@@ -12450,7 +11895,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="11">
+    <format dxfId="5">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="50">
@@ -12508,7 +11953,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="12">
+    <format dxfId="6">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="29">
@@ -12545,15 +11990,24 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="13">
+    <format dxfId="7">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="14">
+    <format dxfId="8">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
-  <chartFormats count="1">
+  <chartFormats count="2">
     <chartFormat chart="1" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -12576,7 +12030,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EB25BCF2-084D-1B4E-BCA7-5692DBD6358B}" name="PivotTable2" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EB25BCF2-084D-1B4E-BCA7-5692DBD6358B}" name="PivotTable2" cacheId="48" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B52" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField showAll="0"/>
@@ -13444,14 +12898,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{64FE08E3-A739-E646-A0A5-FD060F11C1BB}" name="Table2" displayName="Table2" ref="F14:H16" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
-  <autoFilter ref="F14:H16" xr:uid="{01AA085E-ACCE-3143-84D5-9D95B603F903}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5D89372B-06F4-B142-8C53-35BA20B5BF89}" name="Table24" displayName="Table24" ref="F23:H25" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
+  <autoFilter ref="F23:H25" xr:uid="{8153A118-5AA5-7843-A3CF-242252DC5577}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{4BA26BEC-DADE-6548-8ED9-192CB45C4A63}" name="Data Measure" dataDxfId="3" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{EB1BC208-6246-8F47-8166-F8C1C94B3564}" name="Household Income Baltimore" dataDxfId="2" dataCellStyle="Normal 2">
-      <calculatedColumnFormula>(MAX(B2:B181)-MIN(B2:B181))</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{0433C5A6-4711-6442-B90F-D0DB389CD41F}" name="Data Measure" dataDxfId="11" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{34F12367-A316-7248-92CA-12EDAFF27177}" name="Household Income Baltimore" dataDxfId="9" dataCellStyle="Normal 2">
+      <calculatedColumnFormula>MEDIAN(B4:B144)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{56B39C80-9DFE-D64B-822E-839C558FDDE6}" name="Household Income Denver" dataDxfId="1" dataCellStyle="Normal 2">
+    <tableColumn id="3" xr3:uid="{37522646-F6BD-D84C-96A5-D09CE5C17B5F}" name="Household Income Denver" dataDxfId="10" dataCellStyle="Normal 2">
       <calculatedColumnFormula>MEDIAN(#REF!)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -13460,14 +12914,14 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E0483EC2-04A2-E748-AC42-FCD759D9C2EB}" name="Table1" displayName="Table1" ref="F19:H21" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E0483EC2-04A2-E748-AC42-FCD759D9C2EB}" name="Table1" displayName="Table1" ref="F19:H21" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
   <autoFilter ref="F19:H21" xr:uid="{3817668B-8D77-B341-837F-DD44EA6A4E6A}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{0E06529E-FF76-B64F-ACCE-E196BD618998}" name="Data Measure" dataDxfId="18" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{4ED27A5B-A419-1C4D-B641-D5D3F96126CE}" name="Household Income Denver" dataDxfId="17" dataCellStyle="Normal 2">
+    <tableColumn id="1" xr3:uid="{0E06529E-FF76-B64F-ACCE-E196BD618998}" name="Data Measure" dataDxfId="16" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{4ED27A5B-A419-1C4D-B641-D5D3F96126CE}" name="Household Income Denver" dataDxfId="15" dataCellStyle="Normal 2">
       <calculatedColumnFormula>(MAX(B3:B50)-MIN(B3:B50))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{F6CA9470-383F-3242-8353-0D254F815AA1}" name="Household Income Baltimore" dataDxfId="0" dataCellStyle="Normal 2">
+    <tableColumn id="3" xr3:uid="{F6CA9470-383F-3242-8353-0D254F815AA1}" name="Household Income Baltimore" dataDxfId="14" dataCellStyle="Normal 2">
       <calculatedColumnFormula>MEDIAN(C9:C187)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -13774,1497 +13228,1334 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E42DED32-5958-9340-87EE-2C84747C7405}">
   <dimension ref="A3:H183"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="43.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="10.83203125" style="1"/>
     <col min="6" max="6" width="16.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="28.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="22" style="1" customWidth="1"/>
+    <col min="7" max="7" width="29" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.33203125" style="1" customWidth="1"/>
     <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:8" ht="42" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>183</v>
+        <v>140</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>181</v>
+        <v>138</v>
       </c>
       <c r="B4" s="5">
         <v>17213</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>180</v>
+        <v>137</v>
       </c>
       <c r="B5" s="5">
         <v>17650</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>179</v>
+        <v>136</v>
       </c>
       <c r="B6" s="5">
         <v>17979</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>178</v>
+        <v>135</v>
       </c>
       <c r="B7" s="5">
         <v>18168</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>176</v>
+        <v>133</v>
       </c>
       <c r="B8" s="5">
         <v>18192</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="B9" s="5">
         <v>18429</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>173</v>
+        <v>130</v>
       </c>
       <c r="B10" s="5">
         <v>18894</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>172</v>
+        <v>129</v>
       </c>
       <c r="B11" s="5">
         <v>19019</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>171</v>
+        <v>128</v>
       </c>
       <c r="B12" s="5">
         <v>19279</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>170</v>
+        <v>127</v>
       </c>
       <c r="B13" s="5">
         <v>19287.599999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="20" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>169</v>
+        <v>126</v>
       </c>
       <c r="B14" s="5">
         <v>19297.25</v>
       </c>
-      <c r="F14" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" ht="20" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>168</v>
+        <v>125</v>
       </c>
       <c r="B15" s="5">
         <v>19341.5</v>
       </c>
-      <c r="F15" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="G15" s="11">
-        <f>MEDIAN(B4:B182)</f>
-        <v>30586.5</v>
-      </c>
-      <c r="H15" s="12">
-        <v>37660.75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="F15" s="6"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8"/>
+    </row>
+    <row r="16" spans="1:8" ht="20" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>167</v>
+        <v>124</v>
       </c>
       <c r="B16" s="5">
         <v>19381</v>
       </c>
-      <c r="F16" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="G16" s="11">
-        <f>(MAX(B3:B182)-MIN(B3:B182))</f>
-        <v>54646</v>
-      </c>
-      <c r="H16" s="11">
-        <v>41723</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="28" x14ac:dyDescent="0.2">
+      <c r="F16" s="6"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>166</v>
+        <v>123</v>
       </c>
       <c r="B17" s="5">
         <v>19404</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="B18" s="5">
         <v>19421.5</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="28" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>164</v>
+        <v>121</v>
       </c>
       <c r="B19" s="5">
         <v>19452.5</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="28" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>163</v>
+        <v>120</v>
       </c>
       <c r="B20" s="5">
         <v>19477</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="28" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>162</v>
+        <v>119</v>
       </c>
       <c r="B21" s="5">
         <v>19532</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="28" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>161</v>
+        <v>118</v>
       </c>
       <c r="B22" s="5">
         <v>19724</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="28" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="42" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>160</v>
+        <v>117</v>
       </c>
       <c r="B23" s="5">
         <v>19764</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="28" x14ac:dyDescent="0.2">
+      <c r="F23" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="21" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>159</v>
+        <v>116</v>
       </c>
       <c r="B24" s="5">
         <v>19802</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="28" x14ac:dyDescent="0.2">
+      <c r="F24" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G24" s="7">
+        <f>MEDIAN(B4:B144)</f>
+        <v>25970</v>
+      </c>
+      <c r="H24" s="8">
+        <v>37660.75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="21" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>158</v>
+        <v>115</v>
       </c>
       <c r="B25" s="5">
         <v>19867</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="28" x14ac:dyDescent="0.2">
+      <c r="F25" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="G25" s="7">
+        <f>MEDIAN(B5:B145)</f>
+        <v>26116</v>
+      </c>
+      <c r="H25" s="7">
+        <v>41723</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>157</v>
+        <v>114</v>
       </c>
       <c r="B26" s="5">
         <v>19977</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>156</v>
+        <v>113</v>
       </c>
       <c r="B27" s="5">
         <v>20019</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="28" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>155</v>
+        <v>112</v>
       </c>
       <c r="B28" s="5">
         <v>20233</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="28" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>154</v>
+        <v>111</v>
       </c>
       <c r="B29" s="5">
         <v>20279</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="28" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>153</v>
+        <v>110</v>
       </c>
       <c r="B30" s="5">
         <v>20286</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="28" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>152</v>
+        <v>109</v>
       </c>
       <c r="B31" s="5">
         <v>20316</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="28" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>151</v>
+        <v>108</v>
       </c>
       <c r="B32" s="5">
         <v>20507.5</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="28" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>150</v>
+        <v>107</v>
       </c>
       <c r="B33" s="5">
         <v>20583.666666666668</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>149</v>
+        <v>106</v>
       </c>
       <c r="B34" s="5">
         <v>20729</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="28" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="B35" s="5">
         <v>20803</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="28" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>147</v>
+        <v>104</v>
       </c>
       <c r="B36" s="5">
         <v>20829</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="B37" s="5">
         <v>21057</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="28" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>145</v>
+        <v>102</v>
       </c>
       <c r="B38" s="5">
         <v>21169</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="28" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>144</v>
+        <v>101</v>
       </c>
       <c r="B39" s="5">
         <v>21278</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="56" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="B40" s="5">
-        <v>21477.5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="28" x14ac:dyDescent="0.2">
+        <v>21588</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>142</v>
+        <v>99</v>
       </c>
       <c r="B41" s="5">
-        <v>21588</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="28" x14ac:dyDescent="0.2">
+        <v>21705</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>141</v>
+        <v>98</v>
       </c>
       <c r="B42" s="5">
-        <v>21705</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="28" x14ac:dyDescent="0.2">
+        <v>22158</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>140</v>
+        <v>96</v>
       </c>
       <c r="B43" s="5">
-        <v>22158</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="28" x14ac:dyDescent="0.2">
+        <v>22384</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>139</v>
+        <v>97</v>
       </c>
       <c r="B44" s="5">
         <v>22384</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="28" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>138</v>
+        <v>95</v>
       </c>
       <c r="B45" s="5">
-        <v>22384</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="28" x14ac:dyDescent="0.2">
+        <v>22463</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="B46" s="5">
-        <v>22463</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="28" x14ac:dyDescent="0.2">
+        <v>22503.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>136</v>
+        <v>93</v>
       </c>
       <c r="B47" s="5">
-        <v>22503.5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+        <v>22554</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>135</v>
+        <v>92</v>
       </c>
       <c r="B48" s="5">
-        <v>22554</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="28" x14ac:dyDescent="0.2">
+        <v>22687</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>134</v>
+        <v>91</v>
       </c>
       <c r="B49" s="5">
-        <v>22687</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+        <v>22748</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>133</v>
+        <v>90</v>
       </c>
       <c r="B50" s="5">
-        <v>22748</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+        <v>22834</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="B51" s="5">
-        <v>22834</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+        <v>22835</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="B52" s="5">
-        <v>22835</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="28" x14ac:dyDescent="0.2">
+        <v>23070</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>130</v>
+        <v>87</v>
       </c>
       <c r="B53" s="5">
-        <v>23070</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="28" x14ac:dyDescent="0.2">
+        <v>23267.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>129</v>
+        <v>86</v>
       </c>
       <c r="B54" s="5">
-        <v>23267.5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="28" x14ac:dyDescent="0.2">
+        <v>23275</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="B55" s="5">
-        <v>23275</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="28" x14ac:dyDescent="0.2">
+        <v>23281</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>127</v>
+        <v>84</v>
       </c>
       <c r="B56" s="5">
-        <v>23281</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="28" x14ac:dyDescent="0.2">
+        <v>23598</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>126</v>
+        <v>83</v>
       </c>
       <c r="B57" s="5">
-        <v>23598</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="28" x14ac:dyDescent="0.2">
+        <v>23653.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>125</v>
+        <v>82</v>
       </c>
       <c r="B58" s="5">
-        <v>23653.5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="28" x14ac:dyDescent="0.2">
+        <v>23654</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>124</v>
+        <v>81</v>
       </c>
       <c r="B59" s="5">
-        <v>23654</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="28" x14ac:dyDescent="0.2">
+        <v>23921</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>123</v>
+        <v>80</v>
       </c>
       <c r="B60" s="5">
-        <v>23921</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="28" x14ac:dyDescent="0.2">
+        <v>24373</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>122</v>
+        <v>79</v>
       </c>
       <c r="B61" s="5">
-        <v>24373</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="28" x14ac:dyDescent="0.2">
+        <v>24561</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>121</v>
+        <v>78</v>
       </c>
       <c r="B62" s="5">
-        <v>24561</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="28" x14ac:dyDescent="0.2">
+        <v>24644</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="B63" s="5">
-        <v>24644</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="28" x14ac:dyDescent="0.2">
+        <v>24977</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>119</v>
+        <v>76</v>
       </c>
       <c r="B64" s="5">
-        <v>24977</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+        <v>25104</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>118</v>
+        <v>75</v>
       </c>
       <c r="B65" s="5">
-        <v>25104</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="28" x14ac:dyDescent="0.2">
+        <v>25123</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="B66" s="5">
-        <v>25123</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="28" x14ac:dyDescent="0.2">
+        <v>25325</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="B67" s="5">
-        <v>25325</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="28" x14ac:dyDescent="0.2">
+        <v>25381</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
-        <v>115</v>
+        <v>72</v>
       </c>
       <c r="B68" s="5">
-        <v>25381</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="28" x14ac:dyDescent="0.2">
+        <v>25562</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="B69" s="5">
-        <v>25562</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+        <v>25652</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>113</v>
+        <v>70</v>
       </c>
       <c r="B70" s="5">
-        <v>25652</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="28" x14ac:dyDescent="0.2">
+        <v>25714.666666666668</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="B71" s="5">
-        <v>25714.666666666668</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+        <v>25836</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="B72" s="5">
-        <v>25836</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="28" x14ac:dyDescent="0.2">
+        <v>25970</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="B73" s="5">
-        <v>25970</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="28" x14ac:dyDescent="0.2">
+        <v>26262</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
-        <v>109</v>
+        <v>66</v>
       </c>
       <c r="B74" s="5">
-        <v>26262</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+        <v>26410.5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="B75" s="5">
-        <v>26410.5</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="28" x14ac:dyDescent="0.2">
+        <v>26633.5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="B76" s="5">
-        <v>26633.5</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="28" x14ac:dyDescent="0.2">
+        <v>26829.25</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
-        <v>106</v>
+        <v>63</v>
       </c>
       <c r="B77" s="5">
-        <v>26829.25</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="28" x14ac:dyDescent="0.2">
+        <v>26952</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
-        <v>105</v>
+        <v>62</v>
       </c>
       <c r="B78" s="5">
-        <v>26952</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="28" x14ac:dyDescent="0.2">
+        <v>27146</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="B79" s="5">
-        <v>27146</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" ht="28" x14ac:dyDescent="0.2">
+        <v>27472</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="B80" s="5">
-        <v>27472</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" ht="28" x14ac:dyDescent="0.2">
+        <v>27607</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="B81" s="5">
-        <v>27607</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="28" x14ac:dyDescent="0.2">
+        <v>28019</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="B82" s="5">
-        <v>28019</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="28" x14ac:dyDescent="0.2">
+        <v>28134</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="B83" s="5">
-        <v>28134</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="28" x14ac:dyDescent="0.2">
+        <v>28244.333333333332</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="B84" s="5">
-        <v>28244.333333333332</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="28" x14ac:dyDescent="0.2">
+        <v>28901</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="B85" s="5">
-        <v>28901</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="28" x14ac:dyDescent="0.2">
+        <v>28912</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="B86" s="5">
-        <v>28912</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+        <v>29251.25</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="B87" s="5">
-        <v>29251.25</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="28" x14ac:dyDescent="0.2">
+        <v>29687</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="B88" s="5">
-        <v>29687</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" ht="28" x14ac:dyDescent="0.2">
+        <v>29990</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="B89" s="5">
-        <v>29990</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="28" x14ac:dyDescent="0.2">
+        <v>30027</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="B90" s="5">
-        <v>30027</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="28" x14ac:dyDescent="0.2">
+        <v>30166</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="B91" s="5">
-        <v>30166</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" ht="28" x14ac:dyDescent="0.2">
+        <v>30250.125</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="B92" s="5">
-        <v>30250.125</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" ht="28" x14ac:dyDescent="0.2">
+        <v>30586.5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="B93" s="5">
-        <v>30586.5</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" ht="28" x14ac:dyDescent="0.2">
+        <v>31101</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="B94" s="5">
-        <v>31101</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" ht="28" x14ac:dyDescent="0.2">
+        <v>31168</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="B95" s="5">
-        <v>31168</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+        <v>32121</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="B96" s="5">
-        <v>32121</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" ht="28" x14ac:dyDescent="0.2">
+        <v>32278</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="B97" s="5">
-        <v>32193.5</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" ht="28" x14ac:dyDescent="0.2">
+        <v>32483</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="B98" s="5">
-        <v>32278</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" ht="42" x14ac:dyDescent="0.2">
+        <v>32738</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="B99" s="5">
-        <v>32292.666666666668</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" ht="28" x14ac:dyDescent="0.2">
+        <v>33932.25</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="B100" s="5">
-        <v>32483</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" ht="28" x14ac:dyDescent="0.2">
+        <v>34720</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="B101" s="5">
-        <v>32738</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" ht="28" x14ac:dyDescent="0.2">
+        <v>34779</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="B102" s="5">
-        <v>33001.666666666664</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" ht="28" x14ac:dyDescent="0.2">
+        <v>35168</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="B103" s="5">
-        <v>33932.25</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" ht="28" x14ac:dyDescent="0.2">
+        <v>35184</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="B104" s="5">
-        <v>34720</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" ht="28" x14ac:dyDescent="0.2">
+        <v>35857</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="B105" s="5">
-        <v>34779</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" ht="28" x14ac:dyDescent="0.2">
+        <v>36312</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="B106" s="5">
-        <v>34865</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" ht="42" x14ac:dyDescent="0.2">
+        <v>36664.5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="B107" s="5">
-        <v>35168</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+        <v>36983</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="B108" s="5">
-        <v>35184</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+        <v>37176.5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="B109" s="5">
-        <v>35466.666666666664</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+        <v>37546</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="B110" s="5">
-        <v>35857</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" ht="28" x14ac:dyDescent="0.2">
+        <v>37731</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="B111" s="5">
-        <v>36312</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" ht="42" x14ac:dyDescent="0.2">
+        <v>37885</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="B112" s="5">
-        <v>36664.5</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" ht="28" x14ac:dyDescent="0.2">
+        <v>38111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="B113" s="5">
-        <v>36983</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" ht="28" x14ac:dyDescent="0.2">
+        <v>38207</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="B114" s="5">
-        <v>37176.5</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" ht="28" x14ac:dyDescent="0.2">
+        <v>38249</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="B115" s="5">
-        <v>37546</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" ht="28" x14ac:dyDescent="0.2">
+        <v>38283</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="B116" s="5">
-        <v>37731</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" ht="28" x14ac:dyDescent="0.2">
+        <v>39216.25</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="B117" s="5">
-        <v>37885</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+        <v>39299</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="B118" s="5">
-        <v>37979.5</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+        <v>39473</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="B119" s="5">
-        <v>38111</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" ht="28" x14ac:dyDescent="0.2">
+        <v>40634</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="B120" s="5">
-        <v>38207</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" ht="28" x14ac:dyDescent="0.2">
+        <v>41890</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="B121" s="5">
-        <v>38249</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" ht="28" x14ac:dyDescent="0.2">
+        <v>41928.5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="B122" s="5">
-        <v>38283</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+        <v>41988</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="B123" s="5">
-        <v>38457.727272727272</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+        <v>42366.71875</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="B124" s="5">
-        <v>38803.25</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+        <v>45830.5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="B125" s="5">
-        <v>39171.5</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+        <v>46668</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="B126" s="5">
-        <v>39216.25</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" ht="28" x14ac:dyDescent="0.2">
+        <v>47577</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="B127" s="5">
-        <v>39243</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" ht="28" x14ac:dyDescent="0.2">
+        <v>47909</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="B128" s="5">
-        <v>39299</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+        <v>48007</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="B129" s="5">
-        <v>39473</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+        <v>52395.846153846156</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="B130" s="5">
-        <v>39896.470588235294</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+        <v>52863</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="B131" s="5">
-        <v>40088</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+        <v>53447</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="B132" s="5">
-        <v>40634</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+        <v>54032.666666666664</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="B133" s="5">
-        <v>41634.454545454544</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" ht="28" x14ac:dyDescent="0.2">
+        <v>60859</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="B134" s="5">
-        <v>41890</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+        <v>62714</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="B135" s="5">
-        <v>41928.5</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" ht="28" x14ac:dyDescent="0.2">
+        <v>66111</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="B136" s="5">
-        <v>41988</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+        <v>66907</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="B137" s="5">
-        <v>42366.71875</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+        <v>68340</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="B138" s="5">
-        <v>42742.818181818184</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+        <v>69634</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="B139" s="5">
-        <v>43251</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" ht="28" x14ac:dyDescent="0.2">
+        <v>71859</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="B140" s="5">
-        <v>43897</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A141" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B141" s="5">
-        <v>44041.5</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A142" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B142" s="5">
-        <v>44502.666666666664</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A143" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B143" s="5">
-        <v>45636</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" ht="28" x14ac:dyDescent="0.2">
-      <c r="A144" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B144" s="5">
-        <v>45830.5</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A145" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B145" s="5">
-        <v>46194.875</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" ht="28" x14ac:dyDescent="0.2">
-      <c r="A146" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B146" s="5">
-        <v>46668</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A147" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B147" s="5">
-        <v>47577</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" ht="28" x14ac:dyDescent="0.2">
-      <c r="A148" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B148" s="5">
-        <v>47675</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" ht="28" x14ac:dyDescent="0.2">
-      <c r="A149" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B149" s="5">
-        <v>47909</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A150" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B150" s="5">
-        <v>48005.25</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" ht="28" x14ac:dyDescent="0.2">
-      <c r="A151" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B151" s="5">
-        <v>48007</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A152" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B152" s="5">
-        <v>48138.333333333336</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A153" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B153" s="5">
-        <v>48240</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A154" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B154" s="5">
-        <v>48857.076923076922</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A155" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B155" s="5">
-        <v>49379</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A156" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B156" s="5">
-        <v>49511</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" ht="28" x14ac:dyDescent="0.2">
-      <c r="A157" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B157" s="5">
-        <v>49921</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A158" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B158" s="5">
-        <v>52395.846153846156</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A159" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B159" s="5">
-        <v>52719.5</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A160" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B160" s="5">
-        <v>52722.666666666664</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" ht="28" x14ac:dyDescent="0.2">
-      <c r="A161" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B161" s="5">
-        <v>52863</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" ht="28" x14ac:dyDescent="0.2">
-      <c r="A162" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B162" s="5">
-        <v>53447</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" ht="28" x14ac:dyDescent="0.2">
-      <c r="A163" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B163" s="5">
-        <v>53493.5</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A164" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B164" s="5">
-        <v>54032.666666666664</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A165" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B165" s="5">
-        <v>54118.625</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A166" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B166" s="5">
-        <v>57063</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" ht="28" x14ac:dyDescent="0.2">
-      <c r="A167" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B167" s="5">
-        <v>58596</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A168" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B168" s="5">
-        <v>59646</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" ht="28" x14ac:dyDescent="0.2">
-      <c r="A169" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B169" s="5">
-        <v>60323</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A170" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B170" s="5">
-        <v>60442.714285714283</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A171" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B171" s="5">
-        <v>60461.428571428572</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" ht="28" x14ac:dyDescent="0.2">
-      <c r="A172" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B172" s="5">
-        <v>60859</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" ht="28" x14ac:dyDescent="0.2">
-      <c r="A173" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B173" s="5">
-        <v>61832</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" ht="28" x14ac:dyDescent="0.2">
-      <c r="A174" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B174" s="5">
-        <v>62714</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A175" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B175" s="5">
-        <v>64156</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A176" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B176" s="5">
-        <v>64395</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" ht="28" x14ac:dyDescent="0.2">
-      <c r="A177" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B177" s="5">
-        <v>66111</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" ht="28" x14ac:dyDescent="0.2">
-      <c r="A178" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B178" s="5">
-        <v>66907</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" ht="28" x14ac:dyDescent="0.2">
-      <c r="A179" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B179" s="5">
-        <v>67058</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" ht="28" x14ac:dyDescent="0.2">
-      <c r="A180" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B180" s="5">
-        <v>68340</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" ht="28" x14ac:dyDescent="0.2">
-      <c r="A181" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B181" s="5">
-        <v>69634</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" ht="28" x14ac:dyDescent="0.2">
-      <c r="A182" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B182" s="5">
-        <v>71859</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A183" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B183" s="5">
-        <v>38097.459657701715</v>
-      </c>
+        <v>32580.020408163266</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A141"/>
+      <c r="B141"/>
+    </row>
+    <row r="142" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A142"/>
+      <c r="B142"/>
+    </row>
+    <row r="143" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A143"/>
+      <c r="B143"/>
+    </row>
+    <row r="144" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A144"/>
+      <c r="B144"/>
+    </row>
+    <row r="145" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A145"/>
+      <c r="B145"/>
+    </row>
+    <row r="146" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A146"/>
+      <c r="B146"/>
+    </row>
+    <row r="147" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A147"/>
+      <c r="B147"/>
+    </row>
+    <row r="148" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A148"/>
+      <c r="B148"/>
+    </row>
+    <row r="149" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A149"/>
+      <c r="B149"/>
+    </row>
+    <row r="150" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A150"/>
+      <c r="B150"/>
+    </row>
+    <row r="151" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A151"/>
+      <c r="B151"/>
+    </row>
+    <row r="152" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A152"/>
+      <c r="B152"/>
+    </row>
+    <row r="153" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A153"/>
+      <c r="B153"/>
+    </row>
+    <row r="154" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A154"/>
+      <c r="B154"/>
+    </row>
+    <row r="155" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A155"/>
+      <c r="B155"/>
+    </row>
+    <row r="156" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A156"/>
+      <c r="B156"/>
+    </row>
+    <row r="157" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A157"/>
+      <c r="B157"/>
+    </row>
+    <row r="158" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A158"/>
+      <c r="B158"/>
+    </row>
+    <row r="159" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A159"/>
+      <c r="B159"/>
+    </row>
+    <row r="160" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A160"/>
+      <c r="B160"/>
+    </row>
+    <row r="161" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A161"/>
+      <c r="B161"/>
+    </row>
+    <row r="162" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A162"/>
+      <c r="B162"/>
+    </row>
+    <row r="163" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A163"/>
+      <c r="B163"/>
+    </row>
+    <row r="164" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A164"/>
+      <c r="B164"/>
+    </row>
+    <row r="165" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A165"/>
+      <c r="B165"/>
+    </row>
+    <row r="166" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A166"/>
+      <c r="B166"/>
+    </row>
+    <row r="167" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A167"/>
+      <c r="B167"/>
+    </row>
+    <row r="168" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A168"/>
+      <c r="B168"/>
+    </row>
+    <row r="169" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A169"/>
+      <c r="B169"/>
+    </row>
+    <row r="170" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A170"/>
+      <c r="B170"/>
+    </row>
+    <row r="171" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A171"/>
+      <c r="B171"/>
+    </row>
+    <row r="172" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A172"/>
+      <c r="B172"/>
+    </row>
+    <row r="173" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A173"/>
+      <c r="B173"/>
+    </row>
+    <row r="174" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A174"/>
+      <c r="B174"/>
+    </row>
+    <row r="175" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A175"/>
+      <c r="B175"/>
+    </row>
+    <row r="176" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A176"/>
+      <c r="B176"/>
+    </row>
+    <row r="177" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A177"/>
+      <c r="B177"/>
+    </row>
+    <row r="178" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A178"/>
+      <c r="B178"/>
+    </row>
+    <row r="179" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A179"/>
+      <c r="B179"/>
+    </row>
+    <row r="180" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A180"/>
+      <c r="B180"/>
+    </row>
+    <row r="181" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A181"/>
+      <c r="B181"/>
+    </row>
+    <row r="182" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A182"/>
+      <c r="B182"/>
+    </row>
+    <row r="183" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A183"/>
+      <c r="B183"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -15280,8 +14571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DA21A86-FE07-0F41-954C-B73976364799}">
   <dimension ref="A3:H52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -15296,431 +14587,431 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B4" s="5">
+        <v>41015</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="B4" s="9">
-        <v>41015</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="B5" s="9">
+      <c r="B5" s="5">
         <v>50892</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="B6" s="9">
+      <c r="A6" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6" s="5">
         <v>33200</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B7" s="5">
+        <v>30446</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B8" s="5">
+        <v>48270.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B9" s="5">
+        <v>64503</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B10" s="5">
+        <v>36233.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B11" s="5">
+        <v>33125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B12" s="5">
+        <v>39523.26315789474</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B13" s="5">
+        <v>33421</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B14" s="5">
+        <v>48252</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B15" s="5">
+        <v>46047</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B16" s="5">
+        <v>41257</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B17" s="5">
+        <v>52744</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B18" s="5">
+        <v>39255.052631578947</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B19" s="5">
+        <v>41987.125</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="H19" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="B7" s="9">
-        <v>30446</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="B8" s="9">
-        <v>48270.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="B9" s="9">
-        <v>64503</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="B10" s="9">
-        <v>36233.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="B11" s="9">
-        <v>33125</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="B12" s="9">
-        <v>39523.26315789474</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="B13" s="9">
-        <v>33421</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="B14" s="9">
-        <v>48252</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="B15" s="9">
-        <v>46047</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="B16" s="9">
-        <v>41257</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="B17" s="9">
-        <v>52744</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="B18" s="9">
-        <v>39255.052631578947</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="58" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="B19" s="9">
-        <v>41987.125</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>233</v>
-      </c>
     </row>
     <row r="20" spans="1:8" ht="21" x14ac:dyDescent="0.2">
-      <c r="A20" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="B20" s="9">
+      <c r="A20" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B20" s="5">
         <v>22780</v>
       </c>
-      <c r="F20" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="G20" s="11">
+      <c r="F20" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G20" s="7">
         <f>MEDIAN(B4:B51)</f>
         <v>37660.75</v>
       </c>
-      <c r="H20" s="11">
-        <v>30586.5</v>
+      <c r="H20" s="7">
+        <v>25970</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="21" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="B21" s="9">
+      <c r="A21" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B21" s="5">
         <v>49950.5</v>
       </c>
-      <c r="F21" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="G21" s="11">
+      <c r="F21" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="G21" s="7">
         <f>(MAX(B4:B51)-MIN(B4:B51))</f>
         <v>41723</v>
       </c>
-      <c r="H21" s="11">
-        <v>54646</v>
+      <c r="H21" s="7">
+        <v>26116</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="B22" s="9">
+      <c r="A22" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B22" s="5">
         <v>34652</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="B23" s="9">
+      <c r="A23" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B23" s="5">
         <v>31991</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="B24" s="9">
+      <c r="A24" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B24" s="5">
         <v>44137</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="B25" s="9">
+      <c r="A25" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B25" s="5">
         <v>54867</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="B26" s="9">
+      <c r="A26" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B26" s="5">
         <v>37215</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="B27" s="9">
+      <c r="A27" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B27" s="5">
         <v>40962</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="B28" s="9">
+      <c r="A28" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B28" s="5">
         <v>35641</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="B29" s="9">
+      <c r="A29" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B29" s="5">
         <v>31603.5</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B30" s="5">
+        <v>25397</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B31" s="5">
+        <v>33715</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B32" s="5">
+        <v>29661</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B33" s="5">
+        <v>46634</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B34" s="5">
+        <v>37974.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B35" s="5">
+        <v>36121.571428571428</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B36" s="5">
+        <v>27891</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B37" s="5">
+        <v>46603</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B38" s="5">
+        <v>45073</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B39" s="5">
+        <v>35066.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B40" s="5">
+        <v>47480.888888888891</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B41" s="5">
+        <v>54764.4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B42" s="5">
+        <v>46764.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B43" s="5">
+        <v>25833</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B44" s="5">
+        <v>31331</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B45" s="5">
+        <v>52503</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B46" s="5">
+        <v>37347</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B47" s="5">
+        <v>30062</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B48" s="5">
+        <v>30498</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B49" s="5">
+        <v>35005</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="B30" s="9">
-        <v>25397</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="B31" s="9">
-        <v>33715</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="B32" s="9">
-        <v>29661</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="B33" s="9">
-        <v>46634</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="B34" s="9">
-        <v>37974.5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="B35" s="9">
-        <v>36121.571428571428</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="B36" s="9">
-        <v>27891</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="B37" s="9">
-        <v>46603</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="B38" s="9">
-        <v>45073</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="B39" s="9">
-        <v>35066.5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="B40" s="9">
-        <v>47480.888888888891</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="B41" s="9">
-        <v>54764.4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="B42" s="9">
-        <v>46764.5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="B43" s="9">
-        <v>25833</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="B44" s="9">
-        <v>31331</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="B45" s="9">
-        <v>52503</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="B46" s="9">
-        <v>37347</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A47" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="B47" s="9">
-        <v>30062</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A48" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="B48" s="9">
-        <v>30498</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A49" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="B49" s="9">
-        <v>35005</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A50" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="B50" s="9">
+      <c r="B50" s="5">
         <v>54602</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A51" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="B51" s="9">
+      <c r="A51" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B51" s="5">
         <v>31730.444444444445</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A52" s="8" t="s">
+      <c r="A52" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B52" s="9">
+      <c r="B52" s="5">
         <v>40552.461038961039</v>
       </c>
     </row>
